--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80316.57487870281</v>
+        <v>-56214.48974817494</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10716043.60126913</v>
+        <v>11253903.13075873</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23266567.55602014</v>
+        <v>22846008.10072847</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3766722.914186155</v>
+        <v>3907707.594568287</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K11" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>46.25150133729366</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P11" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K12" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P13" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>46.25150133729366</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>74.37427626277801</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>65.20591187910269</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L25" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N25" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>74.37427626277801</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>46.25150133729366</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>64.96559098237566</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>80.84873837615827</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>92.06191329280013</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>73.83937108913169</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>74.37427626277801</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>80.84873837615827</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H11" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I11" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23285,10 +23287,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23297,22 +23299,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S11" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T11" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H12" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I12" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23373,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S12" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H13" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I13" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R13" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S13" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H14" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I14" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23522,10 +23524,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -23534,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S14" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T14" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H15" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I15" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23610,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S15" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T15" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H16" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I16" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S16" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H17" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I17" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S17" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T17" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,22 +23825,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H18" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J18" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23847,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S18" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,28 +23904,28 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H19" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I19" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>64.96559098237566</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>65.20591187910269</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>55.71856618250388</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S19" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H20" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I20" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
-        <v>84.0108208899931</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S20" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T20" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H21" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I21" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S21" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,25 +24141,25 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H22" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I22" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S22" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H23" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I23" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J23" t="n">
-        <v>92.06191329280013</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.7272407629756</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T23" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,22 +24299,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H24" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I24" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24321,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8508838462542</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S24" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T24" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H25" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I25" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24394,7 +24396,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>65.20591187910269</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R25" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S25" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T25" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H26" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I26" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S26" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T26" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H27" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I27" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24558,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S27" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T27" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,22 +24615,22 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H28" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I28" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>64.96559098237566</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R28" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S28" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H29" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I29" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S29" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T29" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,22 +24773,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H30" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J30" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24795,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S30" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T30" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H31" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I31" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S31" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H32" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I32" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T32" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,22 +25010,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H33" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I33" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S33" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T33" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H34" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I34" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25111,25 +25113,25 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>71.9833858147683</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S34" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H35" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I35" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25181,34 +25183,34 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S35" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T35" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H36" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I36" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S36" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T36" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,22 +25326,22 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H37" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I37" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -25351,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S37" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H38" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I38" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S38" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T38" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H39" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I39" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25506,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S39" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T39" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H40" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I40" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S40" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T40" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H41" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I41" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S41" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T41" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H42" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S42" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T42" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H43" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I43" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S43" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H44" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I44" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S44" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T44" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,22 +25958,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H45" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>70.08293774516886</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S45" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T45" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H46" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I46" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>64.96559098237566</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>55.71856618250388</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R46" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S46" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>375033.9285860648</v>
+        <v>361683.4343796956</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>375033.9285860648</v>
+        <v>361683.4343796956</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>255756.6990842098</v>
+        <v>308542.3099688671</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>351350.4075329265</v>
+        <v>322636.7960013897</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>318983.6345602704</v>
+        <v>359807.0688324533</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>288875.2475188716</v>
+        <v>318526.8660763467</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>263564.0819840571</v>
+        <v>308542.3099688671</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>319076.7467475967</v>
+        <v>351930.7292424989</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>375711.3745904161</v>
+        <v>354888.1694278399</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>284988.0536580834</v>
+        <v>321131.2059155582</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>285665.4996624348</v>
+        <v>321131.2059155582</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>299515.6981605492</v>
+        <v>311185.6806366296</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>48378.33248915088</v>
       </c>
       <c r="E2" t="n">
-        <v>52810.35972080702</v>
+        <v>52018.05734388434</v>
       </c>
       <c r="F2" t="n">
-        <v>52810.35972080702</v>
+        <v>52018.05734388432</v>
       </c>
       <c r="G2" t="n">
-        <v>37474.71592771142</v>
+        <v>45185.62706249212</v>
       </c>
       <c r="H2" t="n">
-        <v>49765.33558540354</v>
+        <v>46997.77526667361</v>
       </c>
       <c r="I2" t="n">
-        <v>45603.89334606209</v>
+        <v>51776.81034495317</v>
       </c>
       <c r="J2" t="n">
-        <v>41732.81501216793</v>
+        <v>46469.35570488236</v>
       </c>
       <c r="K2" t="n">
-        <v>38478.52230054892</v>
+        <v>45185.62706249213</v>
       </c>
       <c r="L2" t="n">
-        <v>45615.86491300403</v>
+        <v>50764.13811195906</v>
       </c>
       <c r="M2" t="n">
-        <v>52897.45992136646</v>
+        <v>51144.38042150287</v>
       </c>
       <c r="N2" t="n">
-        <v>41233.03294435233</v>
+        <v>46804.19939849526</v>
       </c>
       <c r="O2" t="n">
-        <v>41320.13314491178</v>
+        <v>46804.19939849526</v>
       </c>
       <c r="P2" t="n">
-        <v>43100.87295181218</v>
+        <v>45525.48900549018</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>209524.6041377088</v>
+        <v>256945.3264049829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>17097.04603392815</v>
+        <v>9116.601271146057</v>
       </c>
       <c r="F4" t="n">
-        <v>17097.04603392815</v>
+        <v>9116.601271146059</v>
       </c>
       <c r="G4" t="n">
-        <v>1761.402240832569</v>
+        <v>2284.170989753854</v>
       </c>
       <c r="H4" t="n">
-        <v>14052.02189852467</v>
+        <v>4096.319193935329</v>
       </c>
       <c r="I4" t="n">
-        <v>9890.579659183217</v>
+        <v>8875.354272214918</v>
       </c>
       <c r="J4" t="n">
-        <v>6019.50132528907</v>
+        <v>3567.899632144088</v>
       </c>
       <c r="K4" t="n">
-        <v>2765.208613670073</v>
+        <v>2284.170989753854</v>
       </c>
       <c r="L4" t="n">
-        <v>9902.551226125161</v>
+        <v>7862.682039220785</v>
       </c>
       <c r="M4" t="n">
-        <v>17184.14623448761</v>
+        <v>8242.924348764616</v>
       </c>
       <c r="N4" t="n">
-        <v>5519.719257473464</v>
+        <v>3902.743325756997</v>
       </c>
       <c r="O4" t="n">
-        <v>5606.819458032921</v>
+        <v>3902.743325756997</v>
       </c>
       <c r="P4" t="n">
-        <v>7387.559264933325</v>
+        <v>2624.032932751896</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-33627.6</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>-179496.6518077106</v>
+        <v>-221015.972895502</v>
       </c>
       <c r="F6" t="n">
-        <v>30027.95232999814</v>
+        <v>35929.35350948093</v>
       </c>
       <c r="G6" t="n">
-        <v>30027.95232999812</v>
+        <v>35929.35350948094</v>
       </c>
       <c r="H6" t="n">
-        <v>30027.95232999813</v>
+        <v>35929.35350948095</v>
       </c>
       <c r="I6" t="n">
-        <v>30027.95232999814</v>
+        <v>35929.35350948092</v>
       </c>
       <c r="J6" t="n">
-        <v>30027.95232999812</v>
+        <v>35929.35350948094</v>
       </c>
       <c r="K6" t="n">
-        <v>30027.95232999811</v>
+        <v>35929.35350948095</v>
       </c>
       <c r="L6" t="n">
-        <v>30027.95232999814</v>
+        <v>35929.35350948095</v>
       </c>
       <c r="M6" t="n">
-        <v>30027.95232999812</v>
+        <v>35929.35350948093</v>
       </c>
       <c r="N6" t="n">
-        <v>30027.95232999813</v>
+        <v>35929.35350948094</v>
       </c>
       <c r="O6" t="n">
-        <v>30027.95232999812</v>
+        <v>35929.35350948094</v>
       </c>
       <c r="P6" t="n">
-        <v>30027.95232999813</v>
+        <v>35929.35350948095</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="G3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="H3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="I3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="J3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="K3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="L3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="M3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="N3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="O3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="P3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H11" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K11" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N11" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P11" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>65.85829705115658</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S11" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T11" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K12" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L12" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31853,25 +31855,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I13" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>33.24940237062825</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K13" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P13" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S13" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T13" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H14" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N14" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P14" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L15" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32090,25 +32092,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S16" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T16" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H17" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N17" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P17" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L18" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32327,25 +32329,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S19" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T19" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H20" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N20" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P20" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L21" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32564,25 +32566,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S22" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T22" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H23" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M23" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N23" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P23" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H24" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I24" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L24" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32801,25 +32803,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R24" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S24" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L25" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M25" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N25" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R25" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S25" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T25" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H26" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N26" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P26" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L27" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33038,25 +33040,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S28" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T28" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H29" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N29" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P29" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L30" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33275,25 +33277,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S31" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T31" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H32" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N32" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P32" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L33" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33512,25 +33514,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S34" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T34" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H35" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N35" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P35" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L36" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33749,25 +33751,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S37" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T37" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H38" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N38" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P38" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L39" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33986,25 +33988,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S40" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T40" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H41" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N41" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P41" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L42" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34223,25 +34225,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S43" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T43" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H44" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N44" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P44" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L45" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34460,25 +34462,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S46" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T46" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56214.48974817494</v>
+        <v>-180099.6105927778</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11253903.13075873</v>
+        <v>10411128.37205422</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22846008.10072847</v>
+        <v>22003233.34202397</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3907707.594568287</v>
+        <v>4344508.667699396</v>
       </c>
     </row>
     <row r="11">
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8695,10 +8695,10 @@
         <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>13.46996085601003</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
         <v>83.46310250126157</v>
@@ -8771,7 +8771,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
         <v>52.16972933916271</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K14" t="n">
         <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
         <v>83.46310250126157</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
         <v>52.16972933916271</v>
@@ -9099,10 +9099,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
         <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
         <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K23" t="n">
         <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
         <v>83.46310250126157</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
         <v>52.16972933916271</v>
@@ -9810,10 +9810,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
         <v>52.16972933916271</v>
@@ -10035,7 +10035,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
         <v>49.14113189899257</v>
@@ -10047,10 +10047,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
         <v>83.46310250126157</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
         <v>52.16972933916271</v>
@@ -10521,10 +10521,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
         <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
         <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22883,34 +22883,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -23287,10 +23287,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23299,7 +23299,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23378,7 +23378,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23524,10 +23524,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -23536,13 +23536,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S14" t="n">
         <v>179.7218745449422</v>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23615,7 +23615,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23755,31 +23755,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
@@ -23831,13 +23831,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>75.83750674330534</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23852,13 +23852,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S18" t="n">
         <v>158.905408270449</v>
@@ -23913,7 +23913,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R19" t="n">
         <v>151.3616578248528</v>
@@ -23995,28 +23995,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S20" t="n">
         <v>179.7218745449422</v>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,10 +24089,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>57.4466155766215</v>
@@ -24150,16 +24150,16 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -24235,25 +24235,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S23" t="n">
         <v>179.7218745449422</v>
@@ -24311,7 +24311,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24466,31 +24466,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S26" t="n">
         <v>179.7218745449422</v>
@@ -24548,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24624,10 +24624,10 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24703,31 +24703,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S29" t="n">
         <v>179.7218745449422</v>
@@ -24779,13 +24779,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83750674330534</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,13 +24800,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.9682853879423</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S30" t="n">
         <v>158.905408270449</v>
@@ -24861,7 +24861,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -24943,28 +24943,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S32" t="n">
         <v>179.7218745449422</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,7 +25037,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25183,25 +25183,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S35" t="n">
         <v>179.7218745449422</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25274,7 +25274,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -25335,13 +25335,13 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -25353,10 +25353,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180407</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R37" t="n">
         <v>151.3616578248528</v>
@@ -25414,31 +25414,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S38" t="n">
         <v>179.7218745449422</v>
@@ -25496,7 +25496,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25511,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
@@ -25651,31 +25651,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>134.8218408634681</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S41" t="n">
         <v>179.7218745449422</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25748,7 +25748,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25888,31 +25888,31 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -25964,13 +25964,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83750674330534</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,10 +25985,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>57.4466155766215</v>
@@ -26046,25 +26046,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180407</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>37.86903925848996</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>291082.266089114</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>361683.4343796956</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>361683.4343796956</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>308542.3099688671</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>322636.7960013897</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>359807.0688324533</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>318526.8660763467</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>308542.3099688671</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>351930.7292424989</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354888.1694278399</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>321131.2059155582</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>321131.2059155582</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>311185.6806366296</v>
+        <v>375536.4907139679</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>48378.33248915088</v>
       </c>
       <c r="C2" t="n">
-        <v>37424.86278288608</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="E2" t="n">
-        <v>52018.05734388434</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="F2" t="n">
-        <v>52018.05734388432</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="G2" t="n">
-        <v>45185.62706249212</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="H2" t="n">
-        <v>46997.77526667361</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="I2" t="n">
-        <v>51776.81034495317</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="J2" t="n">
-        <v>46469.35570488236</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="K2" t="n">
-        <v>45185.62706249213</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="L2" t="n">
-        <v>50764.13811195906</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="M2" t="n">
-        <v>51144.38042150287</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="N2" t="n">
-        <v>46804.19939849526</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="O2" t="n">
-        <v>46804.19939849526</v>
+        <v>53799.16458686215</v>
       </c>
       <c r="P2" t="n">
-        <v>45525.48900549018</v>
+        <v>53799.16458686217</v>
       </c>
     </row>
     <row r="3">
@@ -26420,46 +26420,46 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>37424.86278288608</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>9116.601271146057</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="F4" t="n">
-        <v>9116.601271146059</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="G4" t="n">
-        <v>2284.170989753854</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="H4" t="n">
-        <v>4096.319193935329</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="I4" t="n">
-        <v>8875.354272214918</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="J4" t="n">
-        <v>3567.899632144088</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="K4" t="n">
-        <v>2284.170989753854</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="L4" t="n">
-        <v>7862.682039220785</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="M4" t="n">
-        <v>8242.924348764616</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="N4" t="n">
-        <v>3902.743325756997</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="O4" t="n">
-        <v>3902.743325756997</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="P4" t="n">
-        <v>2624.032932751896</v>
+        <v>10897.70851412389</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="H5" t="n">
         <v>6972.102563257328</v>
@@ -26496,19 +26496,19 @@
         <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="L5" t="n">
         <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="P5" t="n">
         <v>6972.102563257328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="E6" t="n">
-        <v>-221015.972895502</v>
+        <v>-235564.3321880133</v>
       </c>
       <c r="F6" t="n">
-        <v>35929.35350948093</v>
+        <v>21380.99421696966</v>
       </c>
       <c r="G6" t="n">
-        <v>35929.35350948094</v>
+        <v>21380.99421696966</v>
       </c>
       <c r="H6" t="n">
-        <v>35929.35350948095</v>
+        <v>21380.99421696966</v>
       </c>
       <c r="I6" t="n">
-        <v>35929.35350948092</v>
+        <v>21380.99421696966</v>
       </c>
       <c r="J6" t="n">
-        <v>35929.35350948094</v>
+        <v>21380.99421696966</v>
       </c>
       <c r="K6" t="n">
-        <v>35929.35350948095</v>
+        <v>21380.99421696966</v>
       </c>
       <c r="L6" t="n">
-        <v>35929.35350948095</v>
+        <v>21380.99421696966</v>
       </c>
       <c r="M6" t="n">
-        <v>35929.35350948093</v>
+        <v>21380.99421696965</v>
       </c>
       <c r="N6" t="n">
-        <v>35929.35350948094</v>
+        <v>21380.99421696966</v>
       </c>
       <c r="O6" t="n">
-        <v>35929.35350948094</v>
+        <v>21380.99421696964</v>
       </c>
       <c r="P6" t="n">
-        <v>35929.35350948095</v>
+        <v>21380.99421696966</v>
       </c>
     </row>
   </sheetData>
@@ -31998,7 +31998,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
@@ -32022,13 +32022,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S14" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T14" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32077,7 +32077,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32107,7 +32107,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U15" t="n">
         <v>0.04525771959877963</v>
@@ -32150,13 +32150,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K16" t="n">
         <v>67.00516676073742</v>
@@ -32171,10 +32171,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q16" t="n">
         <v>48.29300399320443</v>
@@ -32232,16 +32232,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K17" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M17" t="n">
         <v>225.7600302817866</v>
@@ -32259,13 +32259,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T17" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I18" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K18" t="n">
         <v>111.0835641645513</v>
@@ -32332,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S18" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,37 +32384,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R19" t="n">
         <v>25.93173355231669</v>
@@ -32472,7 +32472,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K20" t="n">
         <v>163.5475711458106</v>
@@ -32496,13 +32496,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S20" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T20" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32551,7 +32551,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K21" t="n">
         <v>111.0835641645513</v>
@@ -32581,7 +32581,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U21" t="n">
         <v>0.04525771959877963</v>
@@ -32624,13 +32624,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K22" t="n">
         <v>67.00516676073742</v>
@@ -32645,10 +32645,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q22" t="n">
         <v>48.29300399320443</v>
@@ -32709,7 +32709,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K23" t="n">
         <v>163.5475711458106</v>
@@ -32733,13 +32733,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S23" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T23" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32788,7 +32788,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K24" t="n">
         <v>111.0835641645513</v>
@@ -32818,7 +32818,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U24" t="n">
         <v>0.04525771959877963</v>
@@ -32861,13 +32861,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K25" t="n">
         <v>67.00516676073742</v>
@@ -32882,10 +32882,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q25" t="n">
         <v>48.29300399320443</v>
@@ -32946,7 +32946,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K26" t="n">
         <v>163.5475711458106</v>
@@ -32970,13 +32970,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S26" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T26" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U26" t="n">
         <v>0.1028570752958528</v>
@@ -33025,7 +33025,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K27" t="n">
         <v>111.0835641645513</v>
@@ -33055,7 +33055,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U27" t="n">
         <v>0.04525771959877963</v>
@@ -33098,13 +33098,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I28" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K28" t="n">
         <v>67.00516676073742</v>
@@ -33119,10 +33119,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q28" t="n">
         <v>48.29300399320443</v>
@@ -33180,16 +33180,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K29" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33207,13 +33207,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T29" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K30" t="n">
         <v>111.0835641645513</v>
@@ -33280,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,37 +33332,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33420,7 +33420,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K32" t="n">
         <v>163.5475711458106</v>
@@ -33444,13 +33444,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S32" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T32" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33499,7 +33499,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K33" t="n">
         <v>111.0835641645513</v>
@@ -33529,7 +33529,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U33" t="n">
         <v>0.04525771959877963</v>
@@ -33572,13 +33572,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K34" t="n">
         <v>67.00516676073742</v>
@@ -33593,10 +33593,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q34" t="n">
         <v>48.29300399320443</v>
@@ -33654,16 +33654,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K35" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M35" t="n">
         <v>225.7600302817866</v>
@@ -33681,13 +33681,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S35" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T35" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I36" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K36" t="n">
         <v>111.0835641645513</v>
@@ -33754,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,37 +33806,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33891,16 +33891,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K38" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M38" t="n">
         <v>225.7600302817866</v>
@@ -33918,13 +33918,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S38" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T38" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I39" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K39" t="n">
         <v>111.0835641645513</v>
@@ -33991,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,37 +34043,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34128,16 +34128,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34155,13 +34155,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S41" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T41" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34368,7 +34368,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K44" t="n">
         <v>163.5475711458106</v>
@@ -34392,13 +34392,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S44" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T44" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34447,7 +34447,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K45" t="n">
         <v>111.0835641645513</v>
@@ -34477,7 +34477,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U45" t="n">
         <v>0.04525771959877963</v>
@@ -34520,13 +34520,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K46" t="n">
         <v>67.00516676073742</v>
@@ -34541,10 +34541,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q46" t="n">
         <v>48.29300399320443</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180099.6105927778</v>
+        <v>-69067.30412180057</v>
       </c>
     </row>
     <row r="7">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
         <v>56.54227989916996</v>
@@ -8698,13 +8698,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
         <v>46.34579576917247</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
         <v>26.75787480980772</v>
@@ -8862,10 +8862,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
         <v>56.54227989916996</v>
@@ -8935,13 +8935,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
         <v>46.34579576917247</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
         <v>26.75787480980772</v>
@@ -9099,10 +9099,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
         <v>56.54227989916996</v>
@@ -9409,13 +9409,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
         <v>46.34579576917247</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
         <v>26.75787480980772</v>
@@ -9573,10 +9573,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
         <v>56.54227989916996</v>
@@ -9646,13 +9646,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
         <v>46.34579576917247</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
         <v>26.75787480980772</v>
@@ -9810,10 +9810,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
         <v>56.54227989916996</v>
@@ -9883,13 +9883,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
         <v>46.34579576917247</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
         <v>26.75787480980772</v>
@@ -10047,10 +10047,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
         <v>4.586202945486093</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,7 +10193,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,16 +10272,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
         <v>56.93882853040725</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M32" t="n">
         <v>4.586202945486093</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,16 +10509,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O34" t="n">
         <v>56.93882853040725</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
         <v>4.586202945486093</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,7 +10667,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,16 +10746,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
         <v>56.93882853040725</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
         <v>4.586202945486093</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,7 +10904,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,16 +10983,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
         <v>56.93882853040725</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
         <v>4.586202945486093</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,16 +11220,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
         <v>56.93882853040725</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M44" t="n">
         <v>4.586202945486093</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,16 +11457,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O46" t="n">
         <v>56.93882853040725</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S11" t="n">
         <v>179.7218745449422</v>
@@ -23439,7 +23439,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S14" t="n">
         <v>179.7218745449422</v>
@@ -23676,7 +23676,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
@@ -23913,7 +23913,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
         <v>151.3616578248528</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
         <v>179.7218745449422</v>
@@ -24150,7 +24150,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
         <v>179.7218745449422</v>
@@ -24387,7 +24387,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S26" t="n">
         <v>179.7218745449422</v>
@@ -24624,7 +24624,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
         <v>151.3616578248528</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R46" t="n">
         <v>151.3616578248528</v>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915089</v>
       </c>
       <c r="C2" t="n">
         <v>48378.33248915088</v>
@@ -26322,37 +26322,37 @@
         <v>48378.33248915088</v>
       </c>
       <c r="E2" t="n">
-        <v>53799.16458686217</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="F2" t="n">
-        <v>53799.16458686217</v>
+        <v>53799.16458686216</v>
       </c>
       <c r="G2" t="n">
         <v>53799.16458686216</v>
       </c>
       <c r="H2" t="n">
+        <v>53799.16458686216</v>
+      </c>
+      <c r="I2" t="n">
+        <v>53799.16458686216</v>
+      </c>
+      <c r="J2" t="n">
+        <v>53799.16458686216</v>
+      </c>
+      <c r="K2" t="n">
         <v>53799.16458686217</v>
-      </c>
-      <c r="I2" t="n">
-        <v>53799.16458686217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>53799.16458686217</v>
-      </c>
-      <c r="K2" t="n">
-        <v>53799.16458686216</v>
       </c>
       <c r="L2" t="n">
         <v>53799.16458686217</v>
       </c>
       <c r="M2" t="n">
-        <v>53799.16458686216</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="N2" t="n">
         <v>53799.16458686216</v>
       </c>
       <c r="O2" t="n">
-        <v>53799.16458686215</v>
+        <v>53799.16458686217</v>
       </c>
       <c r="P2" t="n">
         <v>53799.16458686217</v>
@@ -26484,7 +26484,7 @@
         <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
         <v>6972.102563257328</v>
@@ -26496,22 +26496,22 @@
         <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
+        <v>6972.102563257328</v>
+      </c>
+      <c r="L5" t="n">
         <v>6972.10256325733</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>6972.102563257328</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>6972.102563257328</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6972.102563257328</v>
+      </c>
+      <c r="P5" t="n">
         <v>6972.10256325733</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6972.10256325733</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6972.10256325733</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700346</v>
       </c>
       <c r="C6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700348</v>
       </c>
       <c r="D6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700347</v>
       </c>
       <c r="E6" t="n">
-        <v>-235564.3321880133</v>
+        <v>-222470.8088247531</v>
       </c>
       <c r="F6" t="n">
-        <v>21380.99421696966</v>
+        <v>34474.5175802298</v>
       </c>
       <c r="G6" t="n">
-        <v>21380.99421696966</v>
+        <v>34474.5175802298</v>
       </c>
       <c r="H6" t="n">
-        <v>21380.99421696966</v>
+        <v>34474.5175802298</v>
       </c>
       <c r="I6" t="n">
-        <v>21380.99421696966</v>
+        <v>34474.5175802298</v>
       </c>
       <c r="J6" t="n">
-        <v>21380.99421696966</v>
+        <v>34474.51758022981</v>
       </c>
       <c r="K6" t="n">
-        <v>21380.99421696966</v>
+        <v>34474.51758022982</v>
       </c>
       <c r="L6" t="n">
-        <v>21380.99421696966</v>
+        <v>34474.51758022983</v>
       </c>
       <c r="M6" t="n">
-        <v>21380.99421696965</v>
+        <v>34474.51758022982</v>
       </c>
       <c r="N6" t="n">
-        <v>21380.99421696966</v>
+        <v>34474.51758022982</v>
       </c>
       <c r="O6" t="n">
-        <v>21380.99421696964</v>
+        <v>34474.51758022982</v>
       </c>
       <c r="P6" t="n">
-        <v>21380.99421696966</v>
+        <v>34474.51758022983</v>
       </c>
     </row>
   </sheetData>
@@ -31761,7 +31761,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
@@ -31785,13 +31785,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31840,7 +31840,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31870,7 +31870,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
         <v>0.04525771959877963</v>
@@ -31913,13 +31913,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
         <v>67.00516676073742</v>
@@ -31934,10 +31934,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
         <v>48.29300399320443</v>
@@ -31998,7 +31998,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
@@ -32022,13 +32022,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32077,7 +32077,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32107,7 +32107,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
         <v>0.04525771959877963</v>
@@ -32150,13 +32150,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
         <v>67.00516676073742</v>
@@ -32171,10 +32171,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
         <v>48.29300399320443</v>
@@ -32232,16 +32232,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
         <v>225.7600302817866</v>
@@ -32259,13 +32259,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
         <v>111.0835641645513</v>
@@ -32332,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,37 +32384,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
         <v>25.93173355231669</v>
@@ -32472,7 +32472,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
         <v>163.5475711458106</v>
@@ -32496,13 +32496,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32551,7 +32551,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
         <v>111.0835641645513</v>
@@ -32581,7 +32581,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
         <v>0.04525771959877963</v>
@@ -32624,13 +32624,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
         <v>67.00516676073742</v>
@@ -32645,10 +32645,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
         <v>48.29300399320443</v>
@@ -32709,7 +32709,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
         <v>163.5475711458106</v>
@@ -32733,13 +32733,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32788,7 +32788,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
         <v>111.0835641645513</v>
@@ -32818,7 +32818,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
         <v>0.04525771959877963</v>
@@ -32861,13 +32861,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
         <v>67.00516676073742</v>
@@ -32882,10 +32882,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
         <v>48.29300399320443</v>
@@ -32946,7 +32946,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
         <v>163.5475711458106</v>
@@ -32970,13 +32970,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
         <v>0.1028570752958528</v>
@@ -33025,7 +33025,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
         <v>111.0835641645513</v>
@@ -33055,7 +33055,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
         <v>0.04525771959877963</v>
@@ -33098,13 +33098,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
         <v>67.00516676073742</v>
@@ -33119,10 +33119,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
         <v>48.29300399320443</v>
@@ -33180,7 +33180,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
         <v>109.1233211798925</v>
@@ -33189,7 +33189,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
@@ -33280,13 +33280,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
@@ -33295,7 +33295,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
         <v>5.127625437558785</v>
@@ -33344,16 +33344,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
         <v>81.51770992143554</v>
@@ -33362,7 +33362,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33417,7 +33417,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J32" t="n">
         <v>109.1233211798925</v>
@@ -33426,7 +33426,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
@@ -33517,13 +33517,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
@@ -33532,7 +33532,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H34" t="n">
         <v>5.127625437558785</v>
@@ -33581,16 +33581,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O34" t="n">
         <v>81.51770992143554</v>
@@ -33599,7 +33599,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33654,7 +33654,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
         <v>109.1233211798925</v>
@@ -33663,7 +33663,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
         <v>225.7600302817866</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
         <v>23.68487325669467</v>
@@ -33754,13 +33754,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
@@ -33769,7 +33769,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
         <v>5.127625437558785</v>
@@ -33818,16 +33818,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
         <v>81.51770992143554</v>
@@ -33836,7 +33836,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33891,7 +33891,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
         <v>109.1233211798925</v>
@@ -33900,7 +33900,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
         <v>225.7600302817866</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
         <v>23.68487325669467</v>
@@ -33991,13 +33991,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
@@ -34006,7 +34006,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
         <v>5.127625437558785</v>
@@ -34055,16 +34055,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
         <v>81.51770992143554</v>
@@ -34073,7 +34073,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34128,7 +34128,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
         <v>109.1233211798925</v>
@@ -34137,7 +34137,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
@@ -34228,13 +34228,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
@@ -34243,7 +34243,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
         <v>5.127625437558785</v>
@@ -34292,16 +34292,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
         <v>81.51770992143554</v>
@@ -34310,7 +34310,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34365,7 +34365,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J44" t="n">
         <v>109.1233211798925</v>
@@ -34374,7 +34374,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M44" t="n">
         <v>225.7600302817866</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I45" t="n">
         <v>23.68487325669467</v>
@@ -34465,13 +34465,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S45" t="n">
         <v>12.77776283338877</v>
@@ -34480,7 +34480,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,7 +34517,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H46" t="n">
         <v>5.127625437558785</v>
@@ -34529,16 +34529,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O46" t="n">
         <v>81.51770992143554</v>
@@ -34547,7 +34547,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R46" t="n">
         <v>25.93173355231669</v>
